--- a/beers.xlsx
+++ b/beers.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\menu stuff\slow-boat-beer-menu-master\"/>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="beers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>船长淡色艾尔</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>入口清爽 浓郁酒花香 精酿酒友最爱 轻微芒果味</t>
+  </si>
+  <si>
+    <t>Chinese Name</t>
+  </si>
+  <si>
+    <t>English Name</t>
+  </si>
+  <si>
+    <t>English Description</t>
+  </si>
+  <si>
+    <t>Chinese Description</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Visible?</t>
+  </si>
+  <si>
+    <t>Top (Pixels)</t>
+  </si>
+  <si>
+    <t>Left (Pixels)</t>
+  </si>
+  <si>
+    <t>Text Block Height (Pixels)</t>
+  </si>
+  <si>
+    <t>Font Size</t>
+  </si>
+  <si>
+    <t>Offset Y (Pixels)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Offset X (Pixels)</t>
+  </si>
+  <si>
+    <t>Rect Width (Pixels)</t>
+  </si>
+  <si>
+    <t>Rect Height (Pixels)</t>
   </si>
 </sst>
 </file>
@@ -526,8 +571,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -849,76 +896,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-250</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>220.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>161.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>210.7</v>
+      </c>
+      <c r="D8">
+        <v>254</v>
+      </c>
+      <c r="E8">
+        <f>241.9-220.6</f>
+        <v>21.300000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <f>22.5-10.5</f>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f>22.3 - 0.6</f>
+        <v>21.7</v>
+      </c>
+      <c r="D9">
+        <f>42 - 18</f>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f>21.3</f>
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E11">
         <v>40</v>
       </c>
-      <c r="F1" t="b">
+      <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E12">
         <v>40</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/beers.xlsx
+++ b/beers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>船长淡色艾尔</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Rect Height (Pixels)</t>
+  </si>
+  <si>
+    <t>ABV</t>
+  </si>
+  <si>
+    <t>IBUs</t>
   </si>
 </sst>
 </file>
@@ -897,10 +903,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +917,7 @@
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -922,7 +928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-250</v>
       </c>
@@ -933,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -970,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -984,7 +990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>220.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1082,14 @@
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1108,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1116,8 +1131,11 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1135,6 +1153,9 @@
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+      <c r="G13">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
